--- a/public/Riwayat Setoran.xlsx
+++ b/public/Riwayat Setoran.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>No</t>
   </si>
@@ -38,46 +38,322 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>kertas</t>
-  </si>
-  <si>
-    <t>5 KG</t>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>Kardus</t>
+  </si>
+  <si>
+    <t>2.5 KG</t>
   </si>
   <si>
     <t>fikri aslam</t>
   </si>
   <si>
-    <t>botol</t>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
-    <t>2023-10-15</t>
-  </si>
-  <si>
-    <t>2 kg</t>
+    <t>Seng</t>
+  </si>
+  <si>
+    <t>2.2 KG</t>
+  </si>
+  <si>
+    <t>1.3 KG</t>
+  </si>
+  <si>
+    <t>20.3 KG</t>
+  </si>
+  <si>
+    <t>Alumunium</t>
+  </si>
+  <si>
+    <t>7.4 KG</t>
+  </si>
+  <si>
+    <t>2.34 KG</t>
+  </si>
+  <si>
+    <t>Kipas</t>
   </si>
   <si>
     <t>2 KG</t>
   </si>
   <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>10 kg</t>
-  </si>
-  <si>
-    <t>10 KG</t>
-  </si>
-  <si>
-    <t>2023-08-26</t>
-  </si>
-  <si>
-    <t>1 kg</t>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>Emberan</t>
+  </si>
+  <si>
+    <t>2.27 KG</t>
+  </si>
+  <si>
+    <t>Febrian</t>
+  </si>
+  <si>
+    <t>1.78 KG</t>
+  </si>
+  <si>
+    <t>Plastik Kerasan</t>
+  </si>
+  <si>
+    <t>0.77 KG</t>
+  </si>
+  <si>
+    <t>HVS</t>
+  </si>
+  <si>
+    <t>14.02 KG</t>
+  </si>
+  <si>
+    <t>0.54 KG</t>
+  </si>
+  <si>
+    <t>1.73 KG</t>
+  </si>
+  <si>
+    <t>2.36 KG</t>
+  </si>
+  <si>
+    <t>1.32 KG</t>
+  </si>
+  <si>
+    <t>2023-12-20</t>
+  </si>
+  <si>
+    <t>240.19 KG</t>
+  </si>
+  <si>
+    <t>Duplek</t>
+  </si>
+  <si>
+    <t>14.2 KG</t>
+  </si>
+  <si>
+    <t>3.81 KG</t>
+  </si>
+  <si>
+    <t>12.09 KG</t>
+  </si>
+  <si>
+    <t>2.02 KG</t>
+  </si>
+  <si>
+    <t>Koran BS</t>
+  </si>
+  <si>
+    <t>0.94 KG</t>
+  </si>
+  <si>
+    <t>7.48 KG</t>
+  </si>
+  <si>
+    <t>56.71 KG</t>
+  </si>
+  <si>
+    <t>1.39 KG</t>
+  </si>
+  <si>
+    <t>1.13 KG</t>
+  </si>
+  <si>
+    <t>0.3 KG</t>
+  </si>
+  <si>
+    <t>5.69 KG</t>
+  </si>
+  <si>
+    <t>Galon</t>
+  </si>
+  <si>
+    <t>1 KG</t>
+  </si>
+  <si>
+    <t>0.26 KG</t>
+  </si>
+  <si>
+    <t>1.01 KG</t>
+  </si>
+  <si>
+    <t>289.2 KG</t>
+  </si>
+  <si>
+    <t>51.88 KG</t>
+  </si>
+  <si>
+    <t>1.4 KG</t>
+  </si>
+  <si>
+    <t>Kaleng</t>
+  </si>
+  <si>
+    <t>5.44 KG</t>
+  </si>
+  <si>
+    <t>0.41 KG</t>
+  </si>
+  <si>
+    <t>11.07 KG</t>
+  </si>
+  <si>
+    <t>27.35 KG</t>
+  </si>
+  <si>
+    <t>7.5 KG</t>
+  </si>
+  <si>
+    <t>7.68 KG</t>
+  </si>
+  <si>
+    <t>2.09 KG</t>
+  </si>
+  <si>
+    <t>0.92 KG</t>
+  </si>
+  <si>
+    <t>11 KG</t>
+  </si>
+  <si>
+    <t>3 KG</t>
+  </si>
+  <si>
+    <t>71.62 KG</t>
+  </si>
+  <si>
+    <t>6.6 KG</t>
+  </si>
+  <si>
+    <t>0.44 KG</t>
+  </si>
+  <si>
+    <t>1.46 KG</t>
+  </si>
+  <si>
+    <t>1.96 KG</t>
+  </si>
+  <si>
+    <t>0.75 KG</t>
+  </si>
+  <si>
+    <t>0.98 KG</t>
+  </si>
+  <si>
+    <t>1.57 KG</t>
+  </si>
+  <si>
+    <t>1.21 KG</t>
+  </si>
+  <si>
+    <t>2.16 KG</t>
+  </si>
+  <si>
+    <t>3.44 KG</t>
+  </si>
+  <si>
+    <t>0.5 KG</t>
+  </si>
+  <si>
+    <t>2.44 KG</t>
+  </si>
+  <si>
+    <t>0.43 KG</t>
+  </si>
+  <si>
+    <t>0.42 KG</t>
+  </si>
+  <si>
+    <t>10.52 KG</t>
+  </si>
+  <si>
+    <t>0.35 KG</t>
+  </si>
+  <si>
+    <t>1.06 KG</t>
+  </si>
+  <si>
+    <t>5.83 KG</t>
+  </si>
+  <si>
+    <t>1.47 KG</t>
+  </si>
+  <si>
+    <t>2.37 KG</t>
+  </si>
+  <si>
+    <t>4.75 KG</t>
+  </si>
+  <si>
+    <t>14.4 KG</t>
+  </si>
+  <si>
+    <t>1.1 KG</t>
+  </si>
+  <si>
+    <t>5.17 KG</t>
+  </si>
+  <si>
+    <t>1.37 KG</t>
+  </si>
+  <si>
+    <t>Botol Beling</t>
+  </si>
+  <si>
+    <t>9 KG</t>
+  </si>
+  <si>
+    <t>2.39 KG</t>
+  </si>
+  <si>
+    <t>6.67 KG</t>
+  </si>
+  <si>
+    <t>0.22 KG</t>
+  </si>
+  <si>
+    <t>1.07 KG</t>
+  </si>
+  <si>
+    <t>0.16 KG</t>
+  </si>
+  <si>
+    <t>7.96 KG</t>
+  </si>
+  <si>
+    <t>8.71 KG</t>
+  </si>
+  <si>
+    <t>0.57 KG</t>
+  </si>
+  <si>
+    <t>3.26 KG</t>
+  </si>
+  <si>
+    <t>0.81 KG</t>
+  </si>
+  <si>
+    <t>1.08 KG</t>
+  </si>
+  <si>
+    <t>2.05 KG</t>
+  </si>
+  <si>
+    <t>2.57 KG</t>
+  </si>
+  <si>
+    <t>1.43 KG</t>
+  </si>
+  <si>
+    <t>1.94 KG</t>
+  </si>
+  <si>
+    <t>0.52 KG</t>
+  </si>
+  <si>
+    <t>0.63 KG</t>
+  </si>
+  <si>
+    <t>1.66 KG</t>
+  </si>
+  <si>
+    <t>6.43 KG</t>
   </si>
 </sst>
 </file>
@@ -417,7 +693,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -465,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>60000</v>
+        <v>2500</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -479,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -488,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>30000</v>
+        <v>1650</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -499,19 +775,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4">
-        <v>12000</v>
+        <v>1300</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -522,19 +798,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>24000</v>
+        <v>20300</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -545,19 +821,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>123123</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6">
-        <v>60000</v>
+        <v>40700</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -568,19 +844,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>120000</v>
+        <v>2340</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -591,19 +867,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>123123</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>120000</v>
+        <v>12000</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -614,19 +890,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>123123</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>30000</v>
+        <v>20300</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -637,19 +913,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>123123</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>30000</v>
+        <v>20300</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -660,22 +936,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>123123</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>120000</v>
+        <v>4540</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -683,22 +959,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>123123</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>120000</v>
+        <v>1780</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -706,22 +982,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>123123</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>6000</v>
+        <v>577.5</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -729,21 +1005,1999 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>16824</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>1080</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>1297.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>4720</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>1320</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>288228</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="C14">
-        <v>123123</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>7810</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>3810</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22">
+        <v>14508</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <v>4040</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24">
+        <v>517</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25">
+        <v>8976</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26">
+        <v>56710</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27">
+        <v>2780</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28">
+        <v>2260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29">
+        <v>165</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30">
+        <v>6828</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31">
+        <v>5000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>260</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33">
+        <v>1212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34">
+        <v>347040</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35">
+        <v>28534</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36">
+        <v>2800</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37">
+        <v>9792</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38">
+        <v>820</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39">
+        <v>13284</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40">
+        <v>32820</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41">
         <v>15</v>
       </c>
-      <c r="F14">
-        <v>24000</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41">
+        <v>15000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>1100</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43">
+        <v>7680</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44">
+        <v>2090</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45">
+        <v>1840</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>1100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47">
+        <v>13200</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48">
+        <v>3000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49">
+        <v>71620</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50">
+        <v>7920</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51">
+        <v>792</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52">
+        <v>2920</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53">
+        <v>3920</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54">
+        <v>562.5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55">
+        <v>1960</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56">
+        <v>3140</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57">
+        <v>2420</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58">
+        <v>1188</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59">
+        <v>4128</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60">
+        <v>1840</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61">
+        <v>275</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62">
+        <v>4880</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63">
+        <v>860</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64">
+        <v>840</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65">
+        <v>10520</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66">
+        <v>700</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67">
+        <v>2120</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68">
+        <v>5830</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69">
+        <v>808.5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70">
+        <v>4740</v>
+      </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71">
+        <v>4750</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72">
+        <v>17280</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73">
+        <v>2800</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74">
+        <v>562.5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75">
+        <v>1980</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76">
+        <v>5170</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77">
+        <v>753.5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78">
+        <v>1800</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79">
+        <v>1320</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80">
+        <v>1297.5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81">
+        <v>4780</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82">
+        <v>8004</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83">
+        <v>121</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84">
+        <v>1070</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85">
+        <v>320</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86">
+        <v>9552</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>10452</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88">
+        <v>1026</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89">
+        <v>6520</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90">
+        <v>1620</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91">
+        <v>1080</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92">
+        <v>4100</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F93">
+        <v>440</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94">
+        <v>3084</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" t="s">
+        <v>107</v>
+      </c>
+      <c r="F95">
+        <v>786.5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96">
+        <v>3880</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>109</v>
+      </c>
+      <c r="F97">
+        <v>520</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>110</v>
+      </c>
+      <c r="F98">
+        <v>1260</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>1660</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" t="s">
+        <v>112</v>
+      </c>
+      <c r="F100">
+        <v>3536.5</v>
+      </c>
+      <c r="G100" t="s">
         <v>10</v>
       </c>
     </row>
